--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_24</t>
+          <t>model_35_8_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9565862359784268</v>
+        <v>0.9897537636343592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7168346937783184</v>
+        <v>0.7585749538242612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5943824381458003</v>
+        <v>0.9928613963942651</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9257495423797218</v>
+        <v>0.9965907846275939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9188161967741507</v>
+        <v>0.9934364053964353</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2903080399142623</v>
+        <v>0.06851662975662041</v>
       </c>
       <c r="H2" t="n">
-        <v>1.89352770656073</v>
+        <v>1.614410395437285</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1667122499400856</v>
+        <v>0.1660858187921894</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4936580416004051</v>
+        <v>0.01445578098327501</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3301851457702453</v>
+        <v>0.09027079988773222</v>
       </c>
       <c r="L2" t="n">
-        <v>1.762215589540268</v>
+        <v>0.6016833929388617</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5388024126841511</v>
+        <v>0.2617568141550863</v>
       </c>
       <c r="N2" t="n">
-        <v>1.009558993913007</v>
+        <v>1.005018564750518</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5617403468668698</v>
+        <v>0.2729003436449722</v>
       </c>
       <c r="P2" t="n">
-        <v>268.4736254262859</v>
+        <v>151.3613575860165</v>
       </c>
       <c r="Q2" t="n">
-        <v>430.5841101337566</v>
+        <v>240.3392928013951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_23</t>
+          <t>model_35_8_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.956443601299483</v>
+        <v>0.9888890047561461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7166300885196712</v>
+        <v>0.7585686697166718</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6036769027744026</v>
+        <v>0.9937314656538114</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9278005740832561</v>
+        <v>0.9970588684752788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9209622284626091</v>
+        <v>0.9942444936652708</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2912618386691316</v>
+        <v>0.07429927635708004</v>
       </c>
       <c r="H3" t="n">
-        <v>1.894895902867425</v>
+        <v>1.614452417293671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1628921463352526</v>
+        <v>0.1458429010790421</v>
       </c>
       <c r="J3" t="n">
-        <v>0.480021650304272</v>
+        <v>0.01247100828785952</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3214569542132427</v>
+        <v>0.07915695468345081</v>
       </c>
       <c r="L3" t="n">
-        <v>1.750229418157139</v>
+        <v>0.6585338686047874</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5396867968267628</v>
+        <v>0.2725789360113507</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009590399713875</v>
+        <v>1.005442120119439</v>
       </c>
       <c r="O3" t="n">
-        <v>0.56266238107336</v>
+        <v>0.2841831856335384</v>
       </c>
       <c r="P3" t="n">
-        <v>268.4670652542746</v>
+        <v>151.1993081335598</v>
       </c>
       <c r="Q3" t="n">
-        <v>430.5775499617453</v>
+        <v>240.1772433489384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_22</t>
+          <t>model_35_8_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9562786587390341</v>
+        <v>0.9903583561672069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7164030229302898</v>
+        <v>0.7584335361567662</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6128542572999303</v>
+        <v>0.9920017181398809</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9297905175876526</v>
+        <v>0.9961346443885314</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9230524967868265</v>
+        <v>0.9926389473063333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2923648103303443</v>
+        <v>0.06447371670557477</v>
       </c>
       <c r="H4" t="n">
-        <v>1.89641429150916</v>
+        <v>1.615356056030993</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1591201759736771</v>
+        <v>0.186086980736877</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4667914070874599</v>
+        <v>0.0163899102984589</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3129555595519132</v>
+        <v>0.1012384455176679</v>
       </c>
       <c r="L4" t="n">
-        <v>1.73808079310501</v>
+        <v>0.5506635091074089</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5407076939810865</v>
+        <v>0.2539167515261149</v>
       </c>
       <c r="N4" t="n">
-        <v>1.009626717341864</v>
+        <v>1.004722437795654</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5637267399330917</v>
+        <v>0.2647265133187184</v>
       </c>
       <c r="P4" t="n">
-        <v>268.4595058121126</v>
+        <v>151.4829952623301</v>
       </c>
       <c r="Q4" t="n">
-        <v>430.5699905195833</v>
+        <v>240.4609304777087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_21</t>
+          <t>model_35_8_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9560908849300722</v>
+        <v>0.9876930838503296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7161528683281594</v>
+        <v>0.7583618245337922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.621900837906604</v>
+        <v>0.9945999874224102</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9317175560731701</v>
+        <v>0.9975331811976682</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9250846140196114</v>
+        <v>0.9950522332166855</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2936204546554916</v>
+        <v>0.08229640496098443</v>
       </c>
       <c r="H5" t="n">
-        <v>1.898087076485461</v>
+        <v>1.615835591984022</v>
       </c>
       <c r="I5" t="n">
-        <v>0.155401954799257</v>
+        <v>0.1256359870880934</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4539793911708159</v>
+        <v>0.01045982387048947</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3046906729850365</v>
+        <v>0.0680479054792914</v>
       </c>
       <c r="L5" t="n">
-        <v>1.725754967476114</v>
+        <v>0.7219054913380022</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5418675619148018</v>
+        <v>0.2868734999280771</v>
       </c>
       <c r="N5" t="n">
-        <v>1.009668062033745</v>
+        <v>1.006027877297798</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5649359858460029</v>
+        <v>0.2990862987300263</v>
       </c>
       <c r="P5" t="n">
-        <v>268.4509346324468</v>
+        <v>150.9948557087595</v>
       </c>
       <c r="Q5" t="n">
-        <v>430.5614193399174</v>
+        <v>239.9727909241382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_20</t>
+          <t>model_35_8_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9558796095216794</v>
+        <v>0.9907599893149793</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7158789659413149</v>
+        <v>0.7581860163141851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6308089578046956</v>
+        <v>0.9911620640559508</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9335801252450023</v>
+        <v>0.9956948592367989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9270571112873955</v>
+        <v>0.9918609470349733</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2950332542842476</v>
+        <v>0.06178799399707015</v>
       </c>
       <c r="H6" t="n">
-        <v>1.899918663007494</v>
+        <v>1.617011222358056</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1517406421476103</v>
+        <v>0.2056222629480517</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4415960028499755</v>
+        <v>0.01825469064780193</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2966682686135283</v>
+        <v>0.1119384827762748</v>
       </c>
       <c r="L6" t="n">
-        <v>1.713244487528872</v>
+        <v>0.5048659812355393</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5431696367473495</v>
+        <v>0.2485719091069427</v>
       </c>
       <c r="N6" t="n">
-        <v>1.009714581389722</v>
+        <v>1.004525719519194</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5662934926998386</v>
+        <v>0.2591541298924129</v>
       </c>
       <c r="P6" t="n">
-        <v>268.4413344052164</v>
+        <v>151.5680924105676</v>
       </c>
       <c r="Q6" t="n">
-        <v>430.551819112687</v>
+        <v>240.5460276259462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_19</t>
+          <t>model_35_8_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9556441729954925</v>
+        <v>0.9860775281717755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7155806524943694</v>
+        <v>0.7578868507339757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.639563395370363</v>
+        <v>0.9954523454793879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9353762368793903</v>
+        <v>0.9980059412130502</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9289674976087554</v>
+        <v>0.9958460616408022</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2966076194189446</v>
+        <v>0.0930996332224249</v>
       </c>
       <c r="H7" t="n">
-        <v>1.901913486400826</v>
+        <v>1.619011743970449</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1481424942349293</v>
+        <v>0.105805135899839</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4296544609343395</v>
+        <v>0.008455223253195813</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2888984775846344</v>
+        <v>0.05713017957651739</v>
       </c>
       <c r="L7" t="n">
-        <v>1.700545787597434</v>
+        <v>0.7926095992720154</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5446169474217127</v>
+        <v>0.3051223250147798</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009766420624846</v>
+        <v>1.006819169875049</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5678024183859556</v>
+        <v>0.3181120140809456</v>
       </c>
       <c r="P7" t="n">
-        <v>268.4306903208015</v>
+        <v>150.7481700686313</v>
       </c>
       <c r="Q7" t="n">
-        <v>430.5411750282722</v>
+        <v>239.7261052840099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_18</t>
+          <t>model_35_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.955383926483</v>
+        <v>0.9910045679186252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7152572900754948</v>
+        <v>0.7578649168055724</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6481531857945426</v>
+        <v>0.9903499999701062</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9371040421030613</v>
+        <v>0.9952742685898919</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9308138017349985</v>
+        <v>0.9911092425020993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2983478890463074</v>
+        <v>0.06015249574830903</v>
       </c>
       <c r="H8" t="n">
-        <v>1.904075812384788</v>
+        <v>1.619158416250677</v>
       </c>
       <c r="I8" t="n">
-        <v>0.144612017690515</v>
+        <v>0.2245156398685557</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4181670577543298</v>
+        <v>0.02003808231161747</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2813893172246074</v>
+        <v>0.1222768679996584</v>
       </c>
       <c r="L8" t="n">
-        <v>1.687649229999026</v>
+        <v>0.4637380593282766</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5462123113280288</v>
+        <v>0.2452600573846239</v>
       </c>
       <c r="N8" t="n">
-        <v>1.009823722609248</v>
+        <v>1.004405925917408</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5694657002366221</v>
+        <v>0.255701285785797</v>
       </c>
       <c r="P8" t="n">
-        <v>268.4189901209324</v>
+        <v>151.6217446906945</v>
       </c>
       <c r="Q8" t="n">
-        <v>430.5294748284031</v>
+        <v>240.5996799060732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_17</t>
+          <t>model_35_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.955098243016718</v>
+        <v>0.9911288134096953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7149080701819662</v>
+        <v>0.7574953746060298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6565681101476644</v>
+        <v>0.9895711263105615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9387620466525206</v>
+        <v>0.9948750296254075</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9325940438745933</v>
+        <v>0.9903889044167122</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3002582557007871</v>
+        <v>0.05932166557742623</v>
       </c>
       <c r="H9" t="n">
-        <v>1.906411047420823</v>
+        <v>1.621629546640604</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1411534125808852</v>
+        <v>0.242636812667284</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4071437279987549</v>
+        <v>0.02173093840903169</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2741488396045433</v>
+        <v>0.1321838624264879</v>
       </c>
       <c r="L9" t="n">
-        <v>1.674540510840105</v>
+        <v>0.4267995882278036</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5479582609111638</v>
+        <v>0.2435603941067312</v>
       </c>
       <c r="N9" t="n">
-        <v>1.009886625390814</v>
+        <v>1.004345070983006</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5712859785081251</v>
+        <v>0.2539292643233763</v>
       </c>
       <c r="P9" t="n">
-        <v>268.4062246446217</v>
+        <v>151.6495613685346</v>
       </c>
       <c r="Q9" t="n">
-        <v>430.5167093520923</v>
+        <v>240.6274965839132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_16</t>
+          <t>model_35_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.954786325581864</v>
+        <v>0.991162048167143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7145324574066295</v>
+        <v>0.7570968650252151</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6647875492080498</v>
+        <v>0.9888294618202392</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9403480742279821</v>
+        <v>0.9944982901846656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9343058048554311</v>
+        <v>0.9897035049677988</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3023440490239026</v>
+        <v>0.05909942460134095</v>
       </c>
       <c r="H10" t="n">
-        <v>1.908922771779038</v>
+        <v>1.62429438204248</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1377751535806132</v>
+        <v>0.2598922817964717</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3965989409102954</v>
+        <v>0.02332839185453873</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2671868838138127</v>
+        <v>0.1416103368255052</v>
       </c>
       <c r="L10" t="n">
-        <v>1.661222544785981</v>
+        <v>0.3936125944992082</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5498582081081472</v>
+        <v>0.2431037321830764</v>
       </c>
       <c r="N10" t="n">
-        <v>1.009955304459039</v>
+        <v>1.004328792734461</v>
       </c>
       <c r="O10" t="n">
-        <v>0.573266810390717</v>
+        <v>0.253453161356211</v>
       </c>
       <c r="P10" t="n">
-        <v>268.3923793497295</v>
+        <v>151.6570681812708</v>
       </c>
       <c r="Q10" t="n">
-        <v>430.5028640572002</v>
+        <v>240.6350033966494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_15</t>
+          <t>model_35_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9544478011751949</v>
+        <v>0.9911276343092823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7141295804946625</v>
+        <v>0.7566843423396707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.672809867202014</v>
+        <v>0.9881277528723672</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9418610547967895</v>
+        <v>0.9941447641503408</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9359477540147981</v>
+        <v>0.989055480533274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3046077632900608</v>
+        <v>0.05932955022731642</v>
       </c>
       <c r="H11" t="n">
-        <v>1.911616811544439</v>
+        <v>1.627052923140207</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1344779130065246</v>
+        <v>0.2762181504954299</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3865398106568954</v>
+        <v>0.02482741563738626</v>
       </c>
       <c r="K11" t="n">
-        <v>0.26050886183171</v>
+        <v>0.1505227830664081</v>
       </c>
       <c r="L11" t="n">
-        <v>1.647670247301395</v>
+        <v>0.3637932211333907</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5519128221830516</v>
+        <v>0.2435765798005145</v>
       </c>
       <c r="N11" t="n">
-        <v>1.010029841943076</v>
+        <v>1.004345648501576</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5754088936404276</v>
+        <v>0.253946139075653</v>
       </c>
       <c r="P11" t="n">
-        <v>268.3774607040209</v>
+        <v>151.6492955592094</v>
       </c>
       <c r="Q11" t="n">
-        <v>430.4879454114916</v>
+        <v>240.627230774588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_14</t>
+          <t>model_35_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9540817366266293</v>
+        <v>0.9910439610458887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7136988436030043</v>
+        <v>0.7562690148383586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6806073551588285</v>
+        <v>0.9874674150009289</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9432990065225521</v>
+        <v>0.9938144724485869</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9375169581799577</v>
+        <v>0.9884460301101384</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3070556386118909</v>
+        <v>0.05988907372491004</v>
       </c>
       <c r="H12" t="n">
-        <v>1.914497151122319</v>
+        <v>1.629830220053889</v>
       </c>
       <c r="I12" t="n">
-        <v>0.13127307948004</v>
+        <v>0.2915814851354436</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3769795135812046</v>
+        <v>0.0262279210263368</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2541267032553854</v>
+        <v>0.1589047110359518</v>
       </c>
       <c r="L12" t="n">
-        <v>1.633884491104427</v>
+        <v>0.3369967068661907</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5541260132965162</v>
+        <v>0.2447224422175253</v>
       </c>
       <c r="N12" t="n">
-        <v>1.010110443311568</v>
+        <v>1.004386631324463</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5777163048815296</v>
+        <v>0.2551407832280181</v>
       </c>
       <c r="P12" t="n">
-        <v>268.3614526291044</v>
+        <v>151.6305223981967</v>
       </c>
       <c r="Q12" t="n">
-        <v>430.4719373365751</v>
+        <v>240.6084576135754</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_13</t>
+          <t>model_35_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9536875043510769</v>
+        <v>0.9909255715061425</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7132394092826384</v>
+        <v>0.7558592383090834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6881705155130937</v>
+        <v>0.9868490324132827</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9446599031324705</v>
+        <v>0.9935071250375481</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9390114906621225</v>
+        <v>0.9878756042706289</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3096918716537829</v>
+        <v>0.06068074512232657</v>
       </c>
       <c r="H13" t="n">
-        <v>1.917569390538105</v>
+        <v>1.632570397592</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1281645565808997</v>
+        <v>0.3059686936244465</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3679315214636515</v>
+        <v>0.02753113785907576</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2480482441801294</v>
+        <v>0.1667499238986091</v>
       </c>
       <c r="L13" t="n">
-        <v>1.621593535297654</v>
+        <v>0.3130423328331926</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5564996600661881</v>
+        <v>0.2463346202268909</v>
       </c>
       <c r="N13" t="n">
-        <v>1.010197246748387</v>
+        <v>1.004444618037808</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5801910027083125</v>
+        <v>0.256821594992911</v>
       </c>
       <c r="P13" t="n">
-        <v>268.3443548764366</v>
+        <v>151.6042576900797</v>
       </c>
       <c r="Q13" t="n">
-        <v>430.4548395839073</v>
+        <v>240.5821929054583</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,437 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9532644119800961</v>
+        <v>0.9907838268493543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7127506739123934</v>
+        <v>0.7554610411993183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6954876256267093</v>
+        <v>0.9862724698889581</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9459423684750062</v>
+        <v>0.9932221155565486</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9404294856594542</v>
+        <v>0.9873439952128241</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3125210922866925</v>
+        <v>0.06162859229494305</v>
       </c>
       <c r="H14" t="n">
-        <v>1.920837566209352</v>
+        <v>1.635233143498528</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1251571624125509</v>
+        <v>0.3193829219842357</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3594049837195438</v>
+        <v>0.02873963723075931</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2422810730660473</v>
+        <v>0.1740612796074975</v>
       </c>
       <c r="L14" t="n">
-        <v>1.610009966914176</v>
+        <v>0.2915620212298106</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5590358595713628</v>
+        <v>0.2482510670570079</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01029040470163</v>
+        <v>1.004514043992153</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5828351734770792</v>
+        <v>0.2588196289321779</v>
       </c>
       <c r="P14" t="n">
-        <v>268.326166633532</v>
+        <v>151.5732587109994</v>
       </c>
       <c r="Q14" t="n">
-        <v>430.4366513410026</v>
+        <v>240.551193926378</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_11</t>
+          <t>model_35_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9528117632264022</v>
+        <v>0.9906275145108695</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7122318005147624</v>
+        <v>0.7550786043539877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7025363750492093</v>
+        <v>0.9857369136685095</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9471449499214417</v>
+        <v>0.992958699157931</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9417685516470931</v>
+        <v>0.9868503986122836</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3155479565869004</v>
+        <v>0.06267385362214314</v>
       </c>
       <c r="H15" t="n">
-        <v>1.924307275008504</v>
+        <v>1.637790500444213</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1222600667589084</v>
+        <v>0.3318431030357529</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3514095582267023</v>
+        <v>0.02985657745009538</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2368349165575316</v>
+        <v>0.1808498402429241</v>
       </c>
       <c r="L15" t="n">
-        <v>1.598173879754756</v>
+        <v>0.2722534052085197</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5617365544335712</v>
+        <v>0.2503474657793506</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01039007048226</v>
+        <v>1.004590605137533</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5856508425107808</v>
+        <v>0.2610052756882744</v>
       </c>
       <c r="P15" t="n">
-        <v>268.3068892133835</v>
+        <v>151.5396218518729</v>
       </c>
       <c r="Q15" t="n">
-        <v>430.4173739208542</v>
+        <v>240.5175570672515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_10</t>
+          <t>model_35_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9523288691713201</v>
+        <v>0.990463343003138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7116821057516581</v>
+        <v>0.7547148812577018</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7093043534404918</v>
+        <v>0.9852410706189864</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9482660583610855</v>
+        <v>0.992715879778504</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9430268784600323</v>
+        <v>0.9863935677437902</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3187770713567568</v>
+        <v>0.06377166925028427</v>
       </c>
       <c r="H16" t="n">
-        <v>1.927983086420494</v>
+        <v>1.640222718463868</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1194783703747608</v>
+        <v>0.343379322641263</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3439558102704733</v>
+        <v>0.03088618203181315</v>
       </c>
       <c r="K16" t="n">
-        <v>0.231717136832417</v>
+        <v>0.1871327523365381</v>
       </c>
       <c r="L16" t="n">
-        <v>1.586075954246668</v>
+        <v>0.2548976705382568</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5646034638193046</v>
+        <v>0.252530531323015</v>
       </c>
       <c r="N16" t="n">
-        <v>1.010496395778792</v>
+        <v>1.004671015671933</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5886398021643855</v>
+        <v>0.2632812788517012</v>
       </c>
       <c r="P16" t="n">
-        <v>268.2865265127383</v>
+        <v>151.5048924857829</v>
       </c>
       <c r="Q16" t="n">
-        <v>430.397011220209</v>
+        <v>240.4828277011616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_9</t>
+          <t>model_35_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9518151393818762</v>
+        <v>0.990296459003478</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7111007843242871</v>
+        <v>0.7543715264897337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7157710029094539</v>
+        <v>0.9847834119297034</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9493042297858478</v>
+        <v>0.9924925811220999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9442021770474701</v>
+        <v>0.9859720435772956</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3222123848242759</v>
+        <v>0.06488762332444055</v>
       </c>
       <c r="H17" t="n">
-        <v>1.931870385482063</v>
+        <v>1.642518733378274</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1168205227272962</v>
+        <v>0.35402714991043</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3370534733850274</v>
+        <v>0.03183301469511837</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2269370437597</v>
+        <v>0.1929300823027742</v>
       </c>
       <c r="L17" t="n">
-        <v>1.573703337581617</v>
+        <v>0.2392918214670934</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5676375470529376</v>
+        <v>0.254730491548304</v>
       </c>
       <c r="N17" t="n">
-        <v>1.010609510594816</v>
+        <v>1.004752754773807</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5918030526026925</v>
+        <v>0.2655748959383262</v>
       </c>
       <c r="P17" t="n">
-        <v>268.2650887413311</v>
+        <v>151.470196754484</v>
       </c>
       <c r="Q17" t="n">
-        <v>430.3755734488017</v>
+        <v>240.4481319698627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_8</t>
+          <t>model_35_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9512696542345913</v>
+        <v>0.9901306440911238</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7104871157232004</v>
+        <v>0.7540494784762851</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7219220611533217</v>
+        <v>0.9843620372459804</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9502577102150357</v>
+        <v>0.9922878096472315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9452922850292885</v>
+        <v>0.9855840655760859</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3258600465158985</v>
+        <v>0.06599642840686053</v>
       </c>
       <c r="H18" t="n">
-        <v>1.935973990243214</v>
+        <v>1.644672269927099</v>
       </c>
       <c r="I18" t="n">
-        <v>0.114292385743631</v>
+        <v>0.3638307982469501</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3307142090025182</v>
+        <v>0.03270128826219146</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2225034320221382</v>
+        <v>0.1982660432545708</v>
       </c>
       <c r="L18" t="n">
-        <v>1.561045581381215</v>
+        <v>0.2252542749439384</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5708415248699927</v>
+        <v>0.2568977002755387</v>
       </c>
       <c r="N18" t="n">
-        <v>1.010729617416237</v>
+        <v>1.004833970241082</v>
       </c>
       <c r="O18" t="n">
-        <v>0.595143430388568</v>
+        <v>0.2678343672278198</v>
       </c>
       <c r="P18" t="n">
-        <v>268.2425745899184</v>
+        <v>151.4363093069351</v>
       </c>
       <c r="Q18" t="n">
-        <v>430.3530592973891</v>
+        <v>240.4142445223137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_7</t>
+          <t>model_35_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.950691756941325</v>
+        <v>0.9899687354601445</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7098402507646397</v>
+        <v>0.7537490631990851</v>
       </c>
       <c r="D19" t="n">
-        <v>0.727734435200708</v>
+        <v>0.9839751190336321</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9511251264086293</v>
+        <v>0.9921003523209539</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9462949901860223</v>
+        <v>0.9852278997702315</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3297244483769419</v>
+        <v>0.06707911216773971</v>
       </c>
       <c r="H19" t="n">
-        <v>1.940299579199648</v>
+        <v>1.646681148269021</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1119034508304</v>
+        <v>0.3728327868223997</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3249471471808687</v>
+        <v>0.03349614624456256</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2184252990056343</v>
+        <v>0.203164482925063</v>
       </c>
       <c r="L19" t="n">
-        <v>1.54809661776305</v>
+        <v>0.2126368647769012</v>
       </c>
       <c r="M19" t="n">
-        <v>0.574216377663457</v>
+        <v>0.2589963555105355</v>
       </c>
       <c r="N19" t="n">
-        <v>1.010856860856956</v>
+        <v>1.004913272427684</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5986619576523585</v>
+        <v>0.2700223665609857</v>
       </c>
       <c r="P19" t="n">
-        <v>268.2189959565015</v>
+        <v>151.403765155078</v>
       </c>
       <c r="Q19" t="n">
-        <v>430.3294806639722</v>
+        <v>240.3817003704566</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_6</t>
+          <t>model_35_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9500807894843356</v>
+        <v>0.9898126309966903</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7091594834407058</v>
+        <v>0.7534700302902733</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7331919030861582</v>
+        <v>0.9836204364736072</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9519051527991114</v>
+        <v>0.9919289279847306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9472083013157646</v>
+        <v>0.9849014725376811</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3338099905750769</v>
+        <v>0.06812298343365331</v>
       </c>
       <c r="H20" t="n">
-        <v>1.94485187342944</v>
+        <v>1.648547042615074</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1096603853526625</v>
+        <v>0.3810847849226598</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3197611010248812</v>
+        <v>0.03422302102041392</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2147107431887719</v>
+        <v>0.2076539203701269</v>
       </c>
       <c r="L20" t="n">
-        <v>1.534841003965576</v>
+        <v>0.2012851670139758</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5777629190031816</v>
+        <v>0.2610037996536704</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010991385801614</v>
+        <v>1.004989731756723</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6023594825992677</v>
+        <v>0.2721152717572761</v>
       </c>
       <c r="P20" t="n">
-        <v>268.1943666767576</v>
+        <v>151.3728812548215</v>
       </c>
       <c r="Q20" t="n">
-        <v>430.3048513842283</v>
+        <v>240.3508164702001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_35_8_5</t>
+          <t>model_35_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9494360318431561</v>
+        <v>0.9896637310286907</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7084440285809637</v>
+        <v>0.7532119072699284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7382746638199125</v>
+        <v>0.9832960390048006</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9525964969796216</v>
+        <v>0.9917724225241134</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9480302279742588</v>
+        <v>0.9846029625085473</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3381214878904809</v>
+        <v>0.0691186782052883</v>
       </c>
       <c r="H21" t="n">
-        <v>1.949636123370902</v>
+        <v>1.650273112440668</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1075713276847505</v>
+        <v>0.388632174047556</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3151646631689979</v>
+        <v>0.03488663666631345</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2113678599686749</v>
+        <v>0.2117594053569347</v>
       </c>
       <c r="L21" t="n">
-        <v>1.521262089487582</v>
+        <v>0.1910785877303257</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5814821475251677</v>
+        <v>0.2629043137821978</v>
       </c>
       <c r="N21" t="n">
-        <v>1.011133350786828</v>
+        <v>1.005062662353294</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6062370463792992</v>
+        <v>0.2740966947068615</v>
       </c>
       <c r="P21" t="n">
-        <v>268.1687000329011</v>
+        <v>151.3438605557131</v>
       </c>
       <c r="Q21" t="n">
-        <v>430.2791847403718</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_35_8_4</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9487567016718069</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7076930499805374</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.742958479100372</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9531979251277396</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9487584798655477</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.3426641718743202</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.954657920729891</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.1056462399737065</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.311166036745957</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2084059642785487</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.507353038962699</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.5853752402299914</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.011282928072263</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.6102958761003803</v>
-      </c>
-      <c r="P22" t="n">
-        <v>268.1420088043681</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>430.2524935118388</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_35_8_3</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9480420196550301</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7069056974775325</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.7472272979817722</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9537081864730347</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9493911851882635</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.3474432538113148</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.959922950542909</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.1038917192940502</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.3077735375682282</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.2058326689793701</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.493096388999941</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5894431726734264</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.011440289250269</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.6145369888497133</v>
-      </c>
-      <c r="P23" t="n">
-        <v>268.1143078513933</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>430.224792558864</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_35_8_2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.947291268768694</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7060812764407283</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.7510552781189979</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9541254805432519</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9499257519842853</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3524635284451347</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.965435857812129</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.1023183870682818</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3049991361695408</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2036585159038193</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.478494899933462</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.5936863889673862</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.011605592197719</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.6189608476459756</v>
-      </c>
-      <c r="P24" t="n">
-        <v>268.0856162549732</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>430.1961009624439</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_35_8_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9465036332647473</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7052188616202073</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.7544185467810351</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9544491923365572</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9503602268968089</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3577304506867541</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.971202829688008</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1009360551908401</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3028469214216759</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2018914496094994</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.463520725004233</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.598105718654114</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.011779016528863</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.6235683173467409</v>
-      </c>
-      <c r="P25" t="n">
-        <v>268.0559510144379</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>430.1664357219086</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_35_8_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9456784404643068</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7043176759173713</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.757296901340281</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9546781044090059</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9506927567171732</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.363248518742963</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.977229062632451</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.099753027112609</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.3013249875642227</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.2005390073384159</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.448172360860944</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.6027010193644632</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.011960710356483</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.6283592495219136</v>
-      </c>
-      <c r="P26" t="n">
-        <v>268.0253361086591</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>430.1358208161298</v>
+        <v>240.3217957710918</v>
       </c>
     </row>
   </sheetData>
